--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lidia\OneDrive\Ambiente de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8717FA78-A16E-42DB-9D70-E8D9A97ADFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F2E91-2CFD-4A2C-A8A2-45B073DA9926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;€&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -592,9 +591,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,6 +606,27 @@
     <xf numFmtId="14" fontId="13" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,23 +648,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="10" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,7 +869,7 @@
   <dimension ref="A1:Y986"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,8 +902,8 @@
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -921,19 +920,19 @@
     </row>
     <row r="2" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -950,17 +949,17 @@
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="10"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -980,7 +979,7 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="46"/>
@@ -989,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="50">
+      <c r="H4" s="55">
         <v>515533335</v>
       </c>
       <c r="I4" s="46"/>
@@ -1083,7 +1082,7 @@
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="46"/>
@@ -1091,7 +1090,7 @@
       <c r="F7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="51" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="46"/>
@@ -1099,7 +1098,7 @@
       <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="46"/>
@@ -1122,21 +1121,21 @@
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="9"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="9"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1228,17 +1227,17 @@
     </row>
     <row r="11" spans="1:25" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41">
+      <c r="B11" s="41"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40">
         <f>SUM(E11:K11)</f>
         <v>0</v>
       </c>
@@ -27620,16 +27619,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
